--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DUAS_v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6897243D-A8A9-4646-A884-69F52D6AAA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52353EA7-AFF2-44BD-88C5-3EF15F2E0300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36315" yWindow="1785" windowWidth="21285" windowHeight="15585" xr2:uid="{4B377186-9721-4826-A2A3-0ED2A76EE889}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="28770" windowHeight="17250" xr2:uid="{4B377186-9721-4826-A2A3-0ED2A76EE889}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,12 +414,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D23B0E-76ED-4223-B6A7-6E8107F5760E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <f>PI() * 8.5 * (19/100) * 0.1^2</f>
+        <v>5.0736721355475176E-2</v>
+      </c>
+      <c r="C1">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <f>A1*C1</f>
+        <v>115.02014731286222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <f>200/18.7</f>
+        <v>10.695187165775401</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -8,13 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DUAS_v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52353EA7-AFF2-44BD-88C5-3EF15F2E0300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC74FBA-48D3-48B8-B202-71A9CE11CEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="28770" windowHeight="17250" xr2:uid="{4B377186-9721-4826-A2A3-0ED2A76EE889}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{4B377186-9721-4826-A2A3-0ED2A76EE889}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$40:$A$62</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$40</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$40:$B$62</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$E$40</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$E$40</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,6 +40,210 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+  <si>
+    <t>Cvt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lvt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rho</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>omega</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kappa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rambda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sigma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cd0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>para</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rambda_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cp_cruise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cp_hor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cp_total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cdp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cdi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>bat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fuse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ht</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>etc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>descent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>climb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cruise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time (min)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power (kW)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt; 착륙 대기 위해 호버링 넣음. 최대 2분.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -62,10 +273,47 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -76,9 +324,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -95,6 +352,1058 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Pretendard" panose="02000503000000020004" pitchFamily="50" charset="-127"/>
+                    <a:ea typeface="Pretendard" panose="02000503000000020004" pitchFamily="50" charset="-127"/>
+                    <a:cs typeface="Pretendard" panose="02000503000000020004" pitchFamily="50" charset="-127"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$25:$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>bat</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fuse</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>payload</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>wing</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>etc</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>rod</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>motor</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>prop</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>lg</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>seat</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ht</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>vt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$25:$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1113.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>555.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>404.85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>315.08999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>274.99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>241.97</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>118.16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54.82</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-41A9-4BB3-9EE1-EBC26B903F73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>637761</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>94421</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>521805</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>145773</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E67B84B4-E554-43D3-DA83-9CDCD198D6A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -414,15 +1723,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D23B0E-76ED-4223-B6A7-6E8107F5760E}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:J200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1">
         <f>PI() * 8.5 * (19/100) * 0.1^2</f>
         <v>5.0736721355475176E-2</v>
@@ -430,21 +1745,2237 @@
       <c r="C1">
         <v>2267</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0.08</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1">
+        <f>$G$7 * 0.5 * $B$7 * $B$8 * I1^3</f>
+        <v>0.77588394044044828</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C2">
         <f>A1*C1</f>
         <v>115.02014731286222</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>5.6934449999999996</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J65" si="0">$G$7 * 0.5 * $B$7 * $B$8 * I2^3</f>
+        <v>6.2070715235235863</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>200/18.7</f>
         <v>10.695187165775401</v>
       </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>20.948866391892103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>49.65657218818869</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <f>(E6*E7^2)/2*SQRT(E8^2 + E9^2) + (E10*E11)*(1+E12*E9^2)/(8) + E13</f>
+        <v>5.2714150574289026E-3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5">
+        <f>E5+E14*E15</f>
+        <v>3.8271415057428905E-2</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>96.985492555056041</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <f>B5*B7*B8*(B9*B10)^2</f>
+        <v>70902.546749999994</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>167.59093113513683</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>0.1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7">
+        <f>E5*3 + G5*4</f>
+        <v>0.16889990540200234</v>
+      </c>
+      <c r="I7">
+        <v>7</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>266.12819157107378</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>7.5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>0.02</v>
+      </c>
+      <c r="I8">
+        <v>8</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>397.25257750550952</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <f xml:space="preserve"> B11* 2 * PI() / 60</f>
+        <v>179.79455950265773</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>0.2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9">
+        <v>9</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>565.6193925810868</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <f>SQRT(B8/PI())</f>
+        <v>1.5450968080927583</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>0.22620000000000001</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>775.88394044044833</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <f>B15</f>
+        <v>1716.9115731526731</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <v>5.94E-3</v>
+      </c>
+      <c r="I11">
+        <v>11</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>1032.7015247262366</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="I12">
+        <v>12</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>1340.7274490810946</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>55.56</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13">
+        <v>3.9399999999999999E-3</v>
+      </c>
+      <c r="I13">
+        <v>13</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>1704.6170171476649</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <f>0.2</f>
+        <v>0.2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I14">
+        <v>14</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>2129.0255325685903</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <f>B16 * 60 / (2*PI())</f>
+        <v>1716.9115731526731</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>0.03</v>
+      </c>
+      <c r="I15">
+        <v>15</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>2618.6082989865131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <f>B13/(B14*B10)</f>
+        <v>179.79455950265773</v>
+      </c>
+      <c r="I16">
+        <v>16</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>3178.0206200440762</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I17">
+        <v>17</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>3811.9177993839226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18">
+        <v>18</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>4524.9551406486944</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>5.2300000000000003E-3</v>
+      </c>
+      <c r="I19">
+        <v>19</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>5321.7879474810352</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20">
+        <f>B21^2 / (3.14*B22*B23)</f>
+        <v>4.3158822153662409E-2</v>
+      </c>
+      <c r="I20">
+        <v>20</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>6207.0715235235866</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21">
+        <v>0.93130000000000002</v>
+      </c>
+      <c r="I21">
+        <v>21</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>7185.4611724189917</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="I22">
+        <v>22</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>8261.6121978098927</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23">
+        <v>0.8</v>
+      </c>
+      <c r="I23">
+        <v>23</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>9440.1799033389343</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I24">
+        <v>24</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>10725.819592648757</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25">
+        <v>1113.48</v>
+      </c>
+      <c r="I25">
+        <v>25</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>12123.186569382004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>555.29999999999995</v>
+      </c>
+      <c r="I26">
+        <v>26</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>13636.936137181319</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27">
+        <v>550</v>
+      </c>
+      <c r="I27">
+        <v>27</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>15271.723599689343</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>404.85</v>
+      </c>
+      <c r="I28">
+        <v>28</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>17032.204260548722</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29">
+        <v>315.08999999999997</v>
+      </c>
+      <c r="I29">
+        <v>29</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>18923.033423402092</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30">
+        <v>274.99</v>
+      </c>
+      <c r="I30">
+        <v>30</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>20948.866391892105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>241.97</v>
+      </c>
+      <c r="I31">
+        <v>31</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>23114.358469661394</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>210</v>
+      </c>
+      <c r="I32">
+        <v>32</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>25424.164960352609</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>118.16</v>
+      </c>
+      <c r="I33">
+        <v>33</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>27882.941167608391</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>75</v>
+      </c>
+      <c r="I34">
+        <v>34</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>30495.34239507138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>54.82</v>
+      </c>
+      <c r="I35">
+        <v>35</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>33266.023946384223</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>24.99</v>
+      </c>
+      <c r="I36">
+        <v>36</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>36199.641125189555</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <f>SUM(B25:B36)</f>
+        <v>3938.6499999999996</v>
+      </c>
+      <c r="I37">
+        <v>37</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>39300.84923513003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I38">
+        <v>38</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>42574.303579848282</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" t="s">
+        <v>48</v>
+      </c>
+      <c r="I39">
+        <v>39</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="0"/>
+        <v>46024.659462986951</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>1222.23542</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I40">
+        <v>40</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="0"/>
+        <v>49656.572188188693</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="I41">
+        <v>41</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="0"/>
+        <v>53474.697059096135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>760.21580000000006</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42">
+        <v>42</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="0"/>
+        <v>57483.689379351934</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="I43">
+        <v>43</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="0"/>
+        <v>61688.204452598722</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>5</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="I44">
+        <v>44</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="0"/>
+        <v>66092.897582479141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>6</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="I45">
+        <v>45</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="0"/>
+        <v>70702.424072635855</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>7</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="I46">
+        <v>46</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="0"/>
+        <v>75521.439226711474</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>8</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="I47">
+        <v>47</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="0"/>
+        <v>80554.598348348663</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>9</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="I48">
+        <v>48</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="0"/>
+        <v>85806.556741190056</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>10</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="I49">
+        <v>49</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="0"/>
+        <v>91281.9697088783</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>11</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="I50">
+        <v>50</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="0"/>
+        <v>96985.492555056029</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>12</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="I51">
+        <v>51</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="0"/>
+        <v>102921.78058336591</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>13</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="I52">
+        <v>52</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="0"/>
+        <v>109095.48909745055</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>14</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="I53">
+        <v>53</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="0"/>
+        <v>115511.27340095262</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>15</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="I54">
+        <v>54</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="0"/>
+        <v>122173.78879751475</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>16</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="I55">
+        <v>55</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="0"/>
+        <v>129087.69059077959</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>17</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="I56">
+        <v>56</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="0"/>
+        <v>136257.63408438978</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>18</v>
+      </c>
+      <c r="B57">
+        <v>1095.8791100000001</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I57">
+        <v>57</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="0"/>
+        <v>143688.27458198793</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>19</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="I58">
+        <v>58</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="0"/>
+        <v>151384.26738721674</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>20</v>
+      </c>
+      <c r="B59">
+        <v>1479.443</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I59">
+        <v>59</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="0"/>
+        <v>159350.26780371883</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>21</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s">
+        <v>49</v>
+      </c>
+      <c r="I60">
+        <v>60</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="0"/>
+        <v>167590.93113513684</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>22</v>
+      </c>
+      <c r="B61">
+        <v>1095.8791100000001</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I61">
+        <v>61</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="0"/>
+        <v>176110.91268511341</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>23</v>
+      </c>
+      <c r="B62">
+        <v>1095.8791100000001</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="I62">
+        <v>62</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="0"/>
+        <v>184914.86775729115</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I63">
+        <v>63</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="0"/>
+        <v>194007.45165531276</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I64">
+        <v>64</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="0"/>
+        <v>203393.31968282087</v>
+      </c>
+    </row>
+    <row r="65" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I65">
+        <v>65</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="0"/>
+        <v>213077.12714345811</v>
+      </c>
+    </row>
+    <row r="66" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I66">
+        <v>66</v>
+      </c>
+      <c r="J66">
+        <f t="shared" ref="J66:J129" si="1">$G$7 * 0.5 * $B$7 * $B$8 * I66^3</f>
+        <v>223063.52934086713</v>
+      </c>
+    </row>
+    <row r="67" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I67">
+        <v>67</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="1"/>
+        <v>233357.18157869054</v>
+      </c>
+    </row>
+    <row r="68" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I68">
+        <v>68</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="1"/>
+        <v>243962.73916057104</v>
+      </c>
+    </row>
+    <row r="69" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I69">
+        <v>69</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="1"/>
+        <v>254884.85739015121</v>
+      </c>
+    </row>
+    <row r="70" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I70">
+        <v>70</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="1"/>
+        <v>266128.19157107378</v>
+      </c>
+    </row>
+    <row r="71" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I71">
+        <v>71</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="1"/>
+        <v>277697.39700698131</v>
+      </c>
+    </row>
+    <row r="72" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I72">
+        <v>72</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="1"/>
+        <v>289597.12900151644</v>
+      </c>
+    </row>
+    <row r="73" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I73">
+        <v>73</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="1"/>
+        <v>301832.04285832186</v>
+      </c>
+    </row>
+    <row r="74" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I74">
+        <v>74</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="1"/>
+        <v>314406.79388104024</v>
+      </c>
+    </row>
+    <row r="75" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I75">
+        <v>75</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="1"/>
+        <v>327326.03737331415</v>
+      </c>
+    </row>
+    <row r="76" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I76">
+        <v>76</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="1"/>
+        <v>340594.42863878625</v>
+      </c>
+    </row>
+    <row r="77" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I77">
+        <v>77</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="1"/>
+        <v>354216.62298109918</v>
+      </c>
+    </row>
+    <row r="78" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I78">
+        <v>78</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="1"/>
+        <v>368197.2757038956</v>
+      </c>
+    </row>
+    <row r="79" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I79">
+        <v>79</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="1"/>
+        <v>382541.04211081821</v>
+      </c>
+    </row>
+    <row r="80" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I80">
+        <v>80</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="1"/>
+        <v>397252.57750550954</v>
+      </c>
+    </row>
+    <row r="81" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I81">
+        <v>81</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="1"/>
+        <v>412336.5371916123</v>
+      </c>
+    </row>
+    <row r="82" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I82">
+        <v>82</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="1"/>
+        <v>427797.57647276908</v>
+      </c>
+    </row>
+    <row r="83" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I83">
+        <v>83</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="1"/>
+        <v>443640.35065262258</v>
+      </c>
+    </row>
+    <row r="84" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I84">
+        <v>84</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="1"/>
+        <v>459869.51503481547</v>
+      </c>
+    </row>
+    <row r="85" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I85">
+        <v>85</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="1"/>
+        <v>476489.72492299031</v>
+      </c>
+    </row>
+    <row r="86" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I86">
+        <v>86</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="1"/>
+        <v>493505.63562078978</v>
+      </c>
+    </row>
+    <row r="87" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I87">
+        <v>87</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="1"/>
+        <v>510921.90243185649</v>
+      </c>
+    </row>
+    <row r="88" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I88">
+        <v>88</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="1"/>
+        <v>528743.18065983313</v>
+      </c>
+    </row>
+    <row r="89" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I89">
+        <v>89</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="1"/>
+        <v>546974.12560836237</v>
+      </c>
+    </row>
+    <row r="90" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I90">
+        <v>90</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="1"/>
+        <v>565619.39258108684</v>
+      </c>
+    </row>
+    <row r="91" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I91">
+        <v>91</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="1"/>
+        <v>584683.63688164903</v>
+      </c>
+    </row>
+    <row r="92" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I92">
+        <v>92</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="1"/>
+        <v>604171.5138136918</v>
+      </c>
+    </row>
+    <row r="93" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I93">
+        <v>93</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="1"/>
+        <v>624087.67868085764</v>
+      </c>
+    </row>
+    <row r="94" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I94">
+        <v>94</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="1"/>
+        <v>644436.78678678931</v>
+      </c>
+    </row>
+    <row r="95" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I95">
+        <v>95</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="1"/>
+        <v>665223.49343512929</v>
+      </c>
+    </row>
+    <row r="96" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I96">
+        <v>96</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="1"/>
+        <v>686452.45392952044</v>
+      </c>
+    </row>
+    <row r="97" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I97">
+        <v>97</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="1"/>
+        <v>708128.32357360527</v>
+      </c>
+    </row>
+    <row r="98" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I98">
+        <v>98</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="1"/>
+        <v>730255.7576710264</v>
+      </c>
+    </row>
+    <row r="99" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I99">
+        <v>99</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="1"/>
+        <v>752839.41152542655</v>
+      </c>
+    </row>
+    <row r="100" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I100">
+        <v>100</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="1"/>
+        <v>775883.94044044823</v>
+      </c>
+    </row>
+    <row r="101" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I101">
+        <v>101</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="1"/>
+        <v>799393.9997197343</v>
+      </c>
+    </row>
+    <row r="102" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I102">
+        <v>102</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="1"/>
+        <v>823374.24466692726</v>
+      </c>
+    </row>
+    <row r="103" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I103">
+        <v>103</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="1"/>
+        <v>847829.33058566973</v>
+      </c>
+    </row>
+    <row r="104" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I104">
+        <v>104</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="1"/>
+        <v>872763.91277960443</v>
+      </c>
+    </row>
+    <row r="105" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I105">
+        <v>105</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="1"/>
+        <v>898182.64655237389</v>
+      </c>
+    </row>
+    <row r="106" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I106">
+        <v>106</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="1"/>
+        <v>924090.18720762094</v>
+      </c>
+    </row>
+    <row r="107" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I107">
+        <v>107</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="1"/>
+        <v>950491.19004898809</v>
+      </c>
+    </row>
+    <row r="108" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I108">
+        <v>108</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="1"/>
+        <v>977390.31038011797</v>
+      </c>
+    </row>
+    <row r="109" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I109">
+        <v>109</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="1"/>
+        <v>1004792.2035046533</v>
+      </c>
+    </row>
+    <row r="110" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I110">
+        <v>110</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="1"/>
+        <v>1032701.5247262367</v>
+      </c>
+    </row>
+    <row r="111" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I111">
+        <v>111</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="1"/>
+        <v>1061122.9293485107</v>
+      </c>
+    </row>
+    <row r="112" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I112">
+        <v>112</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="1"/>
+        <v>1090061.0726751182</v>
+      </c>
+    </row>
+    <row r="113" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I113">
+        <v>113</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="1"/>
+        <v>1119520.6100097015</v>
+      </c>
+    </row>
+    <row r="114" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I114">
+        <v>114</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="1"/>
+        <v>1149506.1966559035</v>
+      </c>
+    </row>
+    <row r="115" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I115">
+        <v>115</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="1"/>
+        <v>1180022.4879173667</v>
+      </c>
+    </row>
+    <row r="116" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I116">
+        <v>116</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="1"/>
+        <v>1211074.1390977339</v>
+      </c>
+    </row>
+    <row r="117" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I117">
+        <v>117</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="1"/>
+        <v>1242665.8055006478</v>
+      </c>
+    </row>
+    <row r="118" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I118">
+        <v>118</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="1"/>
+        <v>1274802.1424297506</v>
+      </c>
+    </row>
+    <row r="119" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I119">
+        <v>119</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="1"/>
+        <v>1307487.8051886854</v>
+      </c>
+    </row>
+    <row r="120" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I120">
+        <v>120</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="1"/>
+        <v>1340727.4490810947</v>
+      </c>
+    </row>
+    <row r="121" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I121">
+        <v>121</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="1"/>
+        <v>1374525.7294106211</v>
+      </c>
+    </row>
+    <row r="122" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I122">
+        <v>122</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="1"/>
+        <v>1408887.3014809072</v>
+      </c>
+    </row>
+    <row r="123" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I123">
+        <v>123</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="1"/>
+        <v>1443816.8205955958</v>
+      </c>
+    </row>
+    <row r="124" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I124">
+        <v>124</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="1"/>
+        <v>1479318.9420583292</v>
+      </c>
+    </row>
+    <row r="125" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I125">
+        <v>125</v>
+      </c>
+      <c r="J125">
+        <f t="shared" si="1"/>
+        <v>1515398.3211727506</v>
+      </c>
+    </row>
+    <row r="126" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I126">
+        <v>126</v>
+      </c>
+      <c r="J126">
+        <f t="shared" si="1"/>
+        <v>1552059.6132425021</v>
+      </c>
+    </row>
+    <row r="127" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I127">
+        <v>127</v>
+      </c>
+      <c r="J127">
+        <f t="shared" si="1"/>
+        <v>1589307.4735712267</v>
+      </c>
+    </row>
+    <row r="128" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I128">
+        <v>128</v>
+      </c>
+      <c r="J128">
+        <f t="shared" si="1"/>
+        <v>1627146.557462567</v>
+      </c>
+    </row>
+    <row r="129" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I129">
+        <v>129</v>
+      </c>
+      <c r="J129">
+        <f t="shared" si="1"/>
+        <v>1665581.5202201654</v>
+      </c>
+    </row>
+    <row r="130" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I130">
+        <v>130</v>
+      </c>
+      <c r="J130">
+        <f t="shared" ref="J130:J193" si="2">$G$7 * 0.5 * $B$7 * $B$8 * I130^3</f>
+        <v>1704617.0171476649</v>
+      </c>
+    </row>
+    <row r="131" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I131">
+        <v>131</v>
+      </c>
+      <c r="J131">
+        <f t="shared" si="2"/>
+        <v>1744257.7035487078</v>
+      </c>
+    </row>
+    <row r="132" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I132">
+        <v>132</v>
+      </c>
+      <c r="J132">
+        <f t="shared" si="2"/>
+        <v>1784508.234726937</v>
+      </c>
+    </row>
+    <row r="133" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I133">
+        <v>133</v>
+      </c>
+      <c r="J133">
+        <f t="shared" si="2"/>
+        <v>1825373.2659859948</v>
+      </c>
+    </row>
+    <row r="134" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I134">
+        <v>134</v>
+      </c>
+      <c r="J134">
+        <f t="shared" si="2"/>
+        <v>1866857.4526295243</v>
+      </c>
+    </row>
+    <row r="135" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I135">
+        <v>135</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="2"/>
+        <v>1908965.449961168</v>
+      </c>
+    </row>
+    <row r="136" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I136">
+        <v>136</v>
+      </c>
+      <c r="J136">
+        <f t="shared" si="2"/>
+        <v>1951701.9132845683</v>
+      </c>
+    </row>
+    <row r="137" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I137">
+        <v>137</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="2"/>
+        <v>1995071.497903368</v>
+      </c>
+    </row>
+    <row r="138" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I138">
+        <v>138</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="2"/>
+        <v>2039078.8591212097</v>
+      </c>
+    </row>
+    <row r="139" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I139">
+        <v>139</v>
+      </c>
+      <c r="J139">
+        <f t="shared" si="2"/>
+        <v>2083728.6522417362</v>
+      </c>
+    </row>
+    <row r="140" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I140">
+        <v>140</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="2"/>
+        <v>2129025.5325685902</v>
+      </c>
+    </row>
+    <row r="141" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I141">
+        <v>141</v>
+      </c>
+      <c r="J141">
+        <f t="shared" si="2"/>
+        <v>2174974.1554054138</v>
+      </c>
+    </row>
+    <row r="142" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I142">
+        <v>142</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="2"/>
+        <v>2221579.1760558505</v>
+      </c>
+    </row>
+    <row r="143" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I143">
+        <v>143</v>
+      </c>
+      <c r="J143">
+        <f t="shared" si="2"/>
+        <v>2268845.2498235418</v>
+      </c>
+    </row>
+    <row r="144" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I144">
+        <v>144</v>
+      </c>
+      <c r="J144">
+        <f t="shared" si="2"/>
+        <v>2316777.0320121315</v>
+      </c>
+    </row>
+    <row r="145" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I145">
+        <v>145</v>
+      </c>
+      <c r="J145">
+        <f t="shared" si="2"/>
+        <v>2365379.1779252617</v>
+      </c>
+    </row>
+    <row r="146" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I146">
+        <v>146</v>
+      </c>
+      <c r="J146">
+        <f t="shared" si="2"/>
+        <v>2414656.3428665749</v>
+      </c>
+    </row>
+    <row r="147" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I147">
+        <v>147</v>
+      </c>
+      <c r="J147">
+        <f t="shared" si="2"/>
+        <v>2464613.1821397142</v>
+      </c>
+    </row>
+    <row r="148" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I148">
+        <v>148</v>
+      </c>
+      <c r="J148">
+        <f t="shared" si="2"/>
+        <v>2515254.3510483219</v>
+      </c>
+    </row>
+    <row r="149" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I149">
+        <v>149</v>
+      </c>
+      <c r="J149">
+        <f t="shared" si="2"/>
+        <v>2566584.5048960405</v>
+      </c>
+    </row>
+    <row r="150" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I150">
+        <v>150</v>
+      </c>
+      <c r="J150">
+        <f t="shared" si="2"/>
+        <v>2618608.2989865132</v>
+      </c>
+    </row>
+    <row r="151" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I151">
+        <v>151</v>
+      </c>
+      <c r="J151">
+        <f t="shared" si="2"/>
+        <v>2671330.388623382</v>
+      </c>
+    </row>
+    <row r="152" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I152">
+        <v>152</v>
+      </c>
+      <c r="J152">
+        <f t="shared" si="2"/>
+        <v>2724755.42911029</v>
+      </c>
+    </row>
+    <row r="153" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I153">
+        <v>153</v>
+      </c>
+      <c r="J153">
+        <f t="shared" si="2"/>
+        <v>2778888.0757508795</v>
+      </c>
+    </row>
+    <row r="154" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I154">
+        <v>154</v>
+      </c>
+      <c r="J154">
+        <f t="shared" si="2"/>
+        <v>2833732.9838487934</v>
+      </c>
+    </row>
+    <row r="155" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I155">
+        <v>155</v>
+      </c>
+      <c r="J155">
+        <f t="shared" si="2"/>
+        <v>2889294.8087076745</v>
+      </c>
+    </row>
+    <row r="156" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I156">
+        <v>156</v>
+      </c>
+      <c r="J156">
+        <f t="shared" si="2"/>
+        <v>2945578.2056311648</v>
+      </c>
+    </row>
+    <row r="157" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I157">
+        <v>157</v>
+      </c>
+      <c r="J157">
+        <f t="shared" si="2"/>
+        <v>3002587.8299229075</v>
+      </c>
+    </row>
+    <row r="158" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I158">
+        <v>158</v>
+      </c>
+      <c r="J158">
+        <f t="shared" si="2"/>
+        <v>3060328.3368865456</v>
+      </c>
+    </row>
+    <row r="159" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I159">
+        <v>159</v>
+      </c>
+      <c r="J159">
+        <f t="shared" si="2"/>
+        <v>3118804.3818257209</v>
+      </c>
+    </row>
+    <row r="160" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I160">
+        <v>160</v>
+      </c>
+      <c r="J160">
+        <f t="shared" si="2"/>
+        <v>3178020.6200440763</v>
+      </c>
+    </row>
+    <row r="161" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I161">
+        <v>161</v>
+      </c>
+      <c r="J161">
+        <f t="shared" si="2"/>
+        <v>3237981.7068452546</v>
+      </c>
+    </row>
+    <row r="162" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I162">
+        <v>162</v>
+      </c>
+      <c r="J162">
+        <f t="shared" si="2"/>
+        <v>3298692.2975328984</v>
+      </c>
+    </row>
+    <row r="163" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I163">
+        <v>163</v>
+      </c>
+      <c r="J163">
+        <f t="shared" si="2"/>
+        <v>3360157.0474106502</v>
+      </c>
+    </row>
+    <row r="164" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I164">
+        <v>164</v>
+      </c>
+      <c r="J164">
+        <f t="shared" si="2"/>
+        <v>3422380.6117821527</v>
+      </c>
+    </row>
+    <row r="165" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I165">
+        <v>165</v>
+      </c>
+      <c r="J165">
+        <f t="shared" si="2"/>
+        <v>3485367.6459510489</v>
+      </c>
+    </row>
+    <row r="166" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I166">
+        <v>166</v>
+      </c>
+      <c r="J166">
+        <f t="shared" si="2"/>
+        <v>3549122.8052209807</v>
+      </c>
+    </row>
+    <row r="167" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I167">
+        <v>167</v>
+      </c>
+      <c r="J167">
+        <f t="shared" si="2"/>
+        <v>3613650.7448955914</v>
+      </c>
+    </row>
+    <row r="168" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I168">
+        <v>168</v>
+      </c>
+      <c r="J168">
+        <f t="shared" si="2"/>
+        <v>3678956.1202785238</v>
+      </c>
+    </row>
+    <row r="169" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I169">
+        <v>169</v>
+      </c>
+      <c r="J169">
+        <f t="shared" si="2"/>
+        <v>3745043.5866734199</v>
+      </c>
+    </row>
+    <row r="170" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I170">
+        <v>170</v>
+      </c>
+      <c r="J170">
+        <f t="shared" si="2"/>
+        <v>3811917.7993839225</v>
+      </c>
+    </row>
+    <row r="171" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I171">
+        <v>171</v>
+      </c>
+      <c r="J171">
+        <f t="shared" si="2"/>
+        <v>3879583.4137136745</v>
+      </c>
+    </row>
+    <row r="172" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I172">
+        <v>172</v>
+      </c>
+      <c r="J172">
+        <f t="shared" si="2"/>
+        <v>3948045.0849663182</v>
+      </c>
+    </row>
+    <row r="173" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I173">
+        <v>173</v>
+      </c>
+      <c r="J173">
+        <f t="shared" si="2"/>
+        <v>4017307.4684454966</v>
+      </c>
+    </row>
+    <row r="174" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I174">
+        <v>174</v>
+      </c>
+      <c r="J174">
+        <f t="shared" si="2"/>
+        <v>4087375.2194548519</v>
+      </c>
+    </row>
+    <row r="175" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I175">
+        <v>175</v>
+      </c>
+      <c r="J175">
+        <f t="shared" si="2"/>
+        <v>4158252.9932980277</v>
+      </c>
+    </row>
+    <row r="176" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I176">
+        <v>176</v>
+      </c>
+      <c r="J176">
+        <f t="shared" si="2"/>
+        <v>4229945.4452786651</v>
+      </c>
+    </row>
+    <row r="177" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I177">
+        <v>177</v>
+      </c>
+      <c r="J177">
+        <f t="shared" si="2"/>
+        <v>4302457.2307004081</v>
+      </c>
+    </row>
+    <row r="178" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I178">
+        <v>178</v>
+      </c>
+      <c r="J178">
+        <f t="shared" si="2"/>
+        <v>4375793.004866899</v>
+      </c>
+    </row>
+    <row r="179" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I179">
+        <v>179</v>
+      </c>
+      <c r="J179">
+        <f t="shared" si="2"/>
+        <v>4449957.4230817799</v>
+      </c>
+    </row>
+    <row r="180" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I180">
+        <v>180</v>
+      </c>
+      <c r="J180">
+        <f t="shared" si="2"/>
+        <v>4524955.1406486947</v>
+      </c>
+    </row>
+    <row r="181" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I181">
+        <v>181</v>
+      </c>
+      <c r="J181">
+        <f t="shared" si="2"/>
+        <v>4600790.8128712839</v>
+      </c>
+    </row>
+    <row r="182" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I182">
+        <v>182</v>
+      </c>
+      <c r="J182">
+        <f t="shared" si="2"/>
+        <v>4677469.0950531922</v>
+      </c>
+    </row>
+    <row r="183" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I183">
+        <v>183</v>
+      </c>
+      <c r="J183">
+        <f t="shared" si="2"/>
+        <v>4754994.642498062</v>
+      </c>
+    </row>
+    <row r="184" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I184">
+        <v>184</v>
+      </c>
+      <c r="J184">
+        <f t="shared" si="2"/>
+        <v>4833372.1105095344</v>
+      </c>
+    </row>
+    <row r="185" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I185">
+        <v>185</v>
+      </c>
+      <c r="J185">
+        <f t="shared" si="2"/>
+        <v>4912606.1543912534</v>
+      </c>
+    </row>
+    <row r="186" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I186">
+        <v>186</v>
+      </c>
+      <c r="J186">
+        <f t="shared" si="2"/>
+        <v>4992701.4294468611</v>
+      </c>
+    </row>
+    <row r="187" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I187">
+        <v>187</v>
+      </c>
+      <c r="J187">
+        <f t="shared" si="2"/>
+        <v>5073662.5909800008</v>
+      </c>
+    </row>
+    <row r="188" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I188">
+        <v>188</v>
+      </c>
+      <c r="J188">
+        <f t="shared" si="2"/>
+        <v>5155494.2942943145</v>
+      </c>
+    </row>
+    <row r="189" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I189">
+        <v>189</v>
+      </c>
+      <c r="J189">
+        <f t="shared" si="2"/>
+        <v>5238201.1946934452</v>
+      </c>
+    </row>
+    <row r="190" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I190">
+        <v>190</v>
+      </c>
+      <c r="J190">
+        <f t="shared" si="2"/>
+        <v>5321787.9474810343</v>
+      </c>
+    </row>
+    <row r="191" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I191">
+        <v>191</v>
+      </c>
+      <c r="J191">
+        <f t="shared" si="2"/>
+        <v>5406259.2079607267</v>
+      </c>
+    </row>
+    <row r="192" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I192">
+        <v>192</v>
+      </c>
+      <c r="J192">
+        <f t="shared" si="2"/>
+        <v>5491619.6314361636</v>
+      </c>
+    </row>
+    <row r="193" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I193">
+        <v>193</v>
+      </c>
+      <c r="J193">
+        <f t="shared" si="2"/>
+        <v>5577873.873210988</v>
+      </c>
+    </row>
+    <row r="194" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I194">
+        <v>194</v>
+      </c>
+      <c r="J194">
+        <f t="shared" ref="J194:J200" si="3">$G$7 * 0.5 * $B$7 * $B$8 * I194^3</f>
+        <v>5665026.5885888422</v>
+      </c>
+    </row>
+    <row r="195" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I195">
+        <v>195</v>
+      </c>
+      <c r="J195">
+        <f t="shared" si="3"/>
+        <v>5753082.4328733692</v>
+      </c>
+    </row>
+    <row r="196" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I196">
+        <v>196</v>
+      </c>
+      <c r="J196">
+        <f t="shared" si="3"/>
+        <v>5842046.0613682112</v>
+      </c>
+    </row>
+    <row r="197" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I197">
+        <v>197</v>
+      </c>
+      <c r="J197">
+        <f t="shared" si="3"/>
+        <v>5931922.1293770112</v>
+      </c>
+    </row>
+    <row r="198" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I198">
+        <v>198</v>
+      </c>
+      <c r="J198">
+        <f t="shared" si="3"/>
+        <v>6022715.2922034124</v>
+      </c>
+    </row>
+    <row r="199" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I199">
+        <v>199</v>
+      </c>
+      <c r="J199">
+        <f t="shared" si="3"/>
+        <v>6114430.2051510559</v>
+      </c>
+    </row>
+    <row r="200" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I200">
+        <v>200</v>
+      </c>
+      <c r="J200">
+        <f t="shared" si="3"/>
+        <v>6207071.5235235859</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A25:B36">
+    <sortCondition descending="1" ref="B25:B36"/>
+  </sortState>
+  <mergeCells count="5">
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C61:C62"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>